--- a/biology/Zoologie/Eretmodus_cyanostictus/Eretmodus_cyanostictus.xlsx
+++ b/biology/Zoologie/Eretmodus_cyanostictus/Eretmodus_cyanostictus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eretmodus cyanostictus est une espèce de poissons de la famille des Cichlidés. Elle est endémique du lac Tanganyika, inféodé au substrat rocheux, spécialisé dans un régime alimentaire végétarien. Incubateur buccal bi-parental.
 </t>
